--- a/Excel-XLSX/UN-CHD.xlsx
+++ b/Excel-XLSX/UN-CHD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9ffD9z</t>
+    <t>p1u1FQ</t>
   </si>
   <si>
     <t>1992</t>
@@ -2013,28 +2013,28 @@
     <t>374</t>
   </si>
   <si>
-    <t>136249</t>
-  </si>
-  <si>
-    <t>6805</t>
+    <t>137683</t>
+  </si>
+  <si>
+    <t>4111</t>
   </si>
   <si>
     <t>375</t>
   </si>
   <si>
-    <t>219393</t>
-  </si>
-  <si>
-    <t>296301</t>
+    <t>220610</t>
+  </si>
+  <si>
+    <t>317279</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>13024</t>
-  </si>
-  <si>
-    <t>14914</t>
+    <t>9059</t>
+  </si>
+  <si>
+    <t>17648</t>
   </si>
   <si>
     <t>377</t>
@@ -2058,9 +2058,18 @@
     <t>383</t>
   </si>
   <si>
+    <t>887</t>
+  </si>
+  <si>
     <t>384</t>
   </si>
   <si>
+    <t>21484</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
     <t>385</t>
   </si>
   <si>
@@ -2070,34 +2079,19 @@
     <t>387</t>
   </si>
   <si>
-    <t>21427</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
     <t>388</t>
   </si>
   <si>
+    <t>1109357</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
     <t>389</t>
   </si>
   <si>
     <t>390</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>1067773</t>
-  </si>
-  <si>
-    <t>3261</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>393</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2476,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V394"/>
+  <dimension ref="A1:V391"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -27827,7 +27821,7 @@
         <v>32</v>
       </c>
       <c r="N373" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O373" s="2" t="s">
         <v>34</v>
@@ -28102,7 +28096,7 @@
         <v>671</v>
       </c>
       <c r="O377" s="2" t="s">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c r="P377" s="2" t="s">
         <v>672</v>
@@ -28167,7 +28161,7 @@
         <v>32</v>
       </c>
       <c r="N378" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O378" s="2" t="s">
         <v>49</v>
@@ -28235,10 +28229,10 @@
         <v>32</v>
       </c>
       <c r="N379" s="2" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="P379" s="2" t="s">
         <v>34</v>
@@ -28303,10 +28297,10 @@
         <v>32</v>
       </c>
       <c r="N380" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O380" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="P380" s="2" t="s">
         <v>34</v>
@@ -28371,10 +28365,10 @@
         <v>32</v>
       </c>
       <c r="N381" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O381" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="P381" s="2" t="s">
         <v>34</v>
@@ -28415,16 +28409,16 @@
         <v>662</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>29</v>
@@ -28439,10 +28433,10 @@
         <v>32</v>
       </c>
       <c r="N382" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P382" s="2" t="s">
         <v>34</v>
@@ -28483,16 +28477,16 @@
         <v>662</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>204</v>
+        <v>379</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>29</v>
@@ -28510,7 +28504,7 @@
         <v>49</v>
       </c>
       <c r="O383" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="P383" s="2" t="s">
         <v>34</v>
@@ -28551,16 +28545,16 @@
         <v>662</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J384" s="2" t="s">
         <v>29</v>
@@ -28575,10 +28569,10 @@
         <v>32</v>
       </c>
       <c r="N384" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="O384" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O384" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P384" s="2" t="s">
         <v>34</v>
@@ -28613,22 +28607,22 @@
         <v>22</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>29</v>
@@ -28643,13 +28637,13 @@
         <v>32</v>
       </c>
       <c r="N385" s="2" t="s">
-        <v>120</v>
+        <v>682</v>
       </c>
       <c r="O385" s="2" t="s">
-        <v>116</v>
+        <v>683</v>
       </c>
       <c r="P385" s="2" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="Q385" s="2" t="s">
         <v>34</v>
@@ -28681,22 +28675,22 @@
         <v>22</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>29</v>
@@ -28711,10 +28705,10 @@
         <v>32</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>34</v>
@@ -28749,22 +28743,22 @@
         <v>22</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J387" s="2" t="s">
         <v>29</v>
@@ -28779,10 +28773,10 @@
         <v>32</v>
       </c>
       <c r="N387" s="2" t="s">
-        <v>650</v>
+        <v>49</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>34</v>
@@ -28817,22 +28811,22 @@
         <v>22</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>84</v>
+        <v>415</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>29</v>
@@ -28847,13 +28841,13 @@
         <v>32</v>
       </c>
       <c r="N388" s="2" t="s">
-        <v>684</v>
+        <v>187</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>685</v>
+        <v>34</v>
       </c>
       <c r="P388" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q388" s="2" t="s">
         <v>34</v>
@@ -28885,22 +28879,22 @@
         <v>22</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>29</v>
@@ -28915,10 +28909,10 @@
         <v>32</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>86</v>
+        <v>688</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>34</v>
+        <v>689</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>34</v>
@@ -28953,22 +28947,22 @@
         <v>22</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>29</v>
@@ -28983,10 +28977,10 @@
         <v>32</v>
       </c>
       <c r="N390" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>34</v>
@@ -29021,22 +29015,22 @@
         <v>22</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>662</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>29</v>
@@ -29051,7 +29045,7 @@
         <v>32</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="O391" s="2" t="s">
         <v>34</v>
@@ -29075,210 +29069,6 @@
         <v>35</v>
       </c>
       <c r="V391" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G392" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I392" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J392" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K392" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L392" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M392" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N392" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="O392" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="P392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T392" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U392" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V392" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I393" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J393" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K393" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L393" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M393" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N393" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O393" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P393" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q393" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R393" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S393" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T393" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U393" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V393" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I394" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J394" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K394" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L394" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M394" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N394" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O394" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P394" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q394" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R394" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S394" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T394" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U394" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V394" s="2" t="s">
         <v>34</v>
       </c>
     </row>
